--- a/data/trans_orig/IP07C18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C18-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F59826-8B6F-444F-B2B7-E56F4CD89F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D751B5F1-ADC5-424A-B1CE-A347641711D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF496815-CCA2-4DB9-8AF6-8B8ED1B0AFB1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC490961-0866-43F8-8C93-454DADEABD75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="502">
   <si>
     <t>Menores según frecuencia de llevarse bien con los profesores en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>34,47%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>41,43%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>39,6%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,28 +136,28 @@
     <t>18,38%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -166,10 +166,10 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -184,10 +184,10 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -196,25 +196,25 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>7,56%</t>
+    <t>6,98%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -226,1303 +226,1324 @@
     <t>35,01%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>40,16%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
   </si>
   <si>
     <t>37,42%</t>
   </si>
   <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ADC695-4F78-4B31-8C48-2B25FE66F2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3712C2C7-A296-4617-828B-964DE9211B13}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3189,10 +3210,10 @@
         <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -3201,13 +3222,13 @@
         <v>8954</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -3216,13 +3237,13 @@
         <v>17962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,7 +3299,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF044DC-C7D8-4087-B3D5-820B8A141474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED5E41E-ED01-473E-AB89-307C6189E2B2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3314,7 +3335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3421,13 +3442,13 @@
         <v>23237</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -3436,13 +3457,13 @@
         <v>31349</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -3451,13 +3472,13 @@
         <v>54585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3493,13 @@
         <v>16984</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3487,13 +3508,13 @@
         <v>10062</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3502,13 +3523,13 @@
         <v>27045</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3544,13 @@
         <v>3511</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3538,13 +3559,13 @@
         <v>5719</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3553,13 +3574,13 @@
         <v>9230</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3601,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3658,10 +3679,10 @@
         <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3750,13 @@
         <v>115028</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -3744,13 +3765,13 @@
         <v>106737</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>318</v>
@@ -3759,13 +3780,13 @@
         <v>221764</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3801,13 @@
         <v>75961</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>97</v>
@@ -3795,13 +3816,13 @@
         <v>66798</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>208</v>
@@ -3867,7 +3888,7 @@
         <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3903,13 @@
         <v>6376</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3897,10 +3918,10 @@
         <v>3803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>262</v>
@@ -3915,10 +3936,10 @@
         <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,10 +3954,10 @@
         <v>5402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>267</v>
@@ -3954,7 +3975,7 @@
         <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3963,13 +3984,13 @@
         <v>7302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4115,7 @@
         <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -4103,13 +4124,13 @@
         <v>16989</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -4118,13 +4139,13 @@
         <v>36768</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,10 +4160,10 @@
         <v>4518</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>290</v>
@@ -4226,7 +4247,7 @@
         <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,7 +4283,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4271,13 +4292,13 @@
         <v>1972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4366,13 @@
         <v>168564</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>246</v>
@@ -4360,13 +4381,13 @@
         <v>174620</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>492</v>
@@ -4375,13 +4396,13 @@
         <v>343184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4417,13 @@
         <v>112723</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>135</v>
@@ -4411,13 +4432,13 @@
         <v>93848</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>298</v>
@@ -4426,13 +4447,13 @@
         <v>206571</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4468,13 @@
         <v>28727</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -4462,13 +4483,13 @@
         <v>30811</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -4477,13 +4498,13 @@
         <v>59538</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4519,13 @@
         <v>6376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4513,13 +4534,13 @@
         <v>5536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -4528,13 +4549,13 @@
         <v>11911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4570,13 @@
         <v>7439</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -4564,10 +4585,10 @@
         <v>6703</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>347</v>
@@ -4582,10 +4603,10 @@
         <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4662,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CBCFF0-B4CF-4F34-8DCC-576E54913627}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67C6CD5-7F92-4AF6-8A04-BC566FE5E9F1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4677,7 +4698,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4784,13 +4805,13 @@
         <v>15822</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4799,13 +4820,13 @@
         <v>13890</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -4814,13 +4835,13 @@
         <v>29712</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,7 +4856,7 @@
         <v>16542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>361</v>
@@ -4850,13 +4871,13 @@
         <v>10221</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4865,13 +4886,13 @@
         <v>26763</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4907,13 @@
         <v>4274</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4901,13 +4922,13 @@
         <v>5328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4916,13 +4937,13 @@
         <v>9602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,7 +4964,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4952,13 +4973,13 @@
         <v>549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4967,13 +4988,13 @@
         <v>549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,7 +5015,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5003,13 +5024,13 @@
         <v>617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5018,13 +5039,13 @@
         <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5113,13 @@
         <v>108611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H10" s="7">
         <v>167</v>
@@ -5107,13 +5128,13 @@
         <v>119814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>317</v>
@@ -5122,13 +5143,13 @@
         <v>228425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5164,13 @@
         <v>88245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>138</v>
@@ -5158,13 +5179,13 @@
         <v>95554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M11" s="7">
         <v>258</v>
@@ -5173,13 +5194,13 @@
         <v>183799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5215,13 @@
         <v>30869</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -5209,13 +5230,13 @@
         <v>18835</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -5224,13 +5245,13 @@
         <v>49704</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5266,13 @@
         <v>5071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5260,13 +5281,13 @@
         <v>5340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5275,13 +5296,13 @@
         <v>10411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5317,13 @@
         <v>3554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5311,13 +5332,13 @@
         <v>2028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>422</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5326,13 +5347,13 @@
         <v>5583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>423</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5421,13 @@
         <v>37756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5415,13 +5436,13 @@
         <v>40446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5430,13 +5451,13 @@
         <v>78202</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5472,13 @@
         <v>27799</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5466,13 +5487,13 @@
         <v>23310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -5481,13 +5502,13 @@
         <v>51109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5523,13 @@
         <v>6778</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5517,13 +5538,13 @@
         <v>5576</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5532,13 +5553,13 @@
         <v>12354</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>446</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5574,13 @@
         <v>759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5568,13 +5589,13 @@
         <v>1757</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5583,13 +5604,13 @@
         <v>2516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,7 +5631,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5625,7 +5646,7 @@
         <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5634,13 +5655,13 @@
         <v>1696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5729,13 @@
         <v>162189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>462</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H22" s="7">
         <v>244</v>
@@ -5723,13 +5744,13 @@
         <v>174150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>469</v>
@@ -5738,13 +5759,13 @@
         <v>336340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5780,13 @@
         <v>132586</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7">
         <v>185</v>
@@ -5774,13 +5795,13 @@
         <v>129084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>366</v>
@@ -5789,13 +5810,13 @@
         <v>261671</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5831,13 @@
         <v>41921</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -5825,13 +5846,13 @@
         <v>29739</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>484</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>102</v>
@@ -5840,13 +5861,13 @@
         <v>71660</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5882,13 @@
         <v>5830</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>485</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5879,10 +5900,10 @@
         <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>486</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5891,13 +5912,13 @@
         <v>13476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5933,13 @@
         <v>5251</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5927,13 +5948,13 @@
         <v>2645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5945,10 +5966,10 @@
         <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +6025,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D751B5F1-ADC5-424A-B1CE-A347641711D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4F9130-DA76-4E48-A451-BE952C5BC2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC490961-0866-43F8-8C93-454DADEABD75}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E90500F2-BA6C-443D-806D-8BFF25766EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="498">
   <si>
     <t>Menores según frecuencia de llevarse bien con los profesores en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1477 +73,1465 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>28,22%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con los profesores en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>47,13%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con los profesores en 2016 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3712C2C7-A296-4617-828B-964DE9211B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB848276-B6CE-44F7-8EE4-285088E03DEE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2073,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>14900</v>
+        <v>19062</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2088,10 +2076,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>19062</v>
+        <v>14900</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2127,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>17115</v>
+        <v>17926</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2142,7 +2130,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>17926</v>
+        <v>17115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2175,10 +2163,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>7944</v>
+        <v>5726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2190,10 +2178,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>5726</v>
+        <v>7944</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2226,10 +2214,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2621</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2241,10 +2229,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2621</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2277,31 +2265,31 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>644</v>
+        <v>3300</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>3300</v>
+        <v>644</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>55</v>
@@ -2328,25 +2316,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -2381,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>75587</v>
+        <v>75957</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2396,10 +2384,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I10" s="7">
-        <v>75957</v>
+        <v>75587</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2432,10 +2420,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D11" s="7">
-        <v>85620</v>
+        <v>77761</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2447,10 +2435,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I11" s="7">
-        <v>77761</v>
+        <v>85620</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2465,7 +2453,7 @@
         <v>243</v>
       </c>
       <c r="N11" s="7">
-        <v>163381</v>
+        <v>163382</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -2483,10 +2471,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>45995</v>
+        <v>30161</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2498,10 +2486,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>30161</v>
+        <v>45995</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2534,10 +2522,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>4127</v>
+        <v>2492</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>88</v>
@@ -2549,10 +2537,10 @@
         <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>2492</v>
+        <v>4127</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>91</v>
@@ -2585,10 +2573,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>4546</v>
+        <v>2742</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -2600,10 +2588,10 @@
         <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>2742</v>
+        <v>4546</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -2624,10 +2612,10 @@
         <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,25 +2624,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>283</v>
+      </c>
+      <c r="D15" s="7">
+        <v>189113</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>326</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215875</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>283</v>
-      </c>
-      <c r="I15" s="7">
-        <v>189113</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -2669,7 +2657,7 @@
         <v>609</v>
       </c>
       <c r="N15" s="7">
-        <v>404988</v>
+        <v>404989</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -2683,40 +2671,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25276</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="7">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>18984</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25276</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -2725,13 +2713,13 @@
         <v>44261</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,34 +2728,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18626</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="7">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>18209</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="7">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18626</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -2776,13 +2764,13 @@
         <v>36835</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,34 +2779,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6638</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5795</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6638</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2827,13 +2815,13 @@
         <v>12434</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,34 +2830,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>793</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2234</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>793</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2878,13 +2866,13 @@
         <v>3027</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,34 +2881,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2912</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="7">
         <v>6</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>3818</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2912</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -2929,13 +2917,13 @@
         <v>6730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,25 +2932,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2997,34 +2985,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>180</v>
+      </c>
+      <c r="D22" s="7">
+        <v>120296</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="7">
         <v>165</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>109471</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="7">
-        <v>180</v>
-      </c>
-      <c r="I22" s="7">
-        <v>120296</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>345</v>
@@ -3033,13 +3021,13 @@
         <v>229767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,34 +3036,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>168</v>
+      </c>
+      <c r="D23" s="7">
+        <v>114313</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="7">
         <v>182</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>120944</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="7">
-        <v>168</v>
-      </c>
-      <c r="I23" s="7">
-        <v>114313</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>350</v>
@@ -3084,13 +3072,13 @@
         <v>235257</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,34 +3087,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>64</v>
+      </c>
+      <c r="D24" s="7">
+        <v>42526</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="7">
         <v>90</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>59733</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="7">
-        <v>64</v>
-      </c>
-      <c r="I24" s="7">
-        <v>42526</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>154</v>
@@ -3135,13 +3123,13 @@
         <v>102259</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,34 +3138,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3285</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="7">
         <v>13</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>8983</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3285</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -3186,13 +3174,13 @@
         <v>12267</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,34 +3189,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8954</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="7">
         <v>14</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>9008</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="7">
-        <v>13</v>
-      </c>
-      <c r="I26" s="7">
-        <v>8954</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -3237,13 +3225,13 @@
         <v>17962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,25 +3240,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>430</v>
+      </c>
+      <c r="D27" s="7">
+        <v>289374</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>464</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>308139</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>430</v>
-      </c>
-      <c r="I27" s="7">
-        <v>289374</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3299,7 +3287,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED5E41E-ED01-473E-AB89-307C6189E2B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658723B-59CB-4522-8421-58A8BE2BB1BA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3335,7 +3323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3436,34 +3424,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7">
+        <v>31349</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="7">
         <v>34</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>23237</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H4" s="7">
-        <v>44</v>
-      </c>
-      <c r="I4" s="7">
-        <v>31349</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -3472,13 +3460,13 @@
         <v>54585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,34 +3475,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10062</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16984</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10062</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3523,13 +3511,13 @@
         <v>27045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,34 +3526,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5719</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3511</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5719</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3574,13 +3562,13 @@
         <v>9230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,34 +3577,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1058</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1058</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3625,13 +3613,13 @@
         <v>1058</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,34 +3628,34 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3438</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1430</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3438</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3676,13 +3664,13 @@
         <v>4868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,25 +3679,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -3744,34 +3732,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>151</v>
+      </c>
+      <c r="D10" s="7">
+        <v>106737</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
         <v>167</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>115028</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H10" s="7">
-        <v>151</v>
-      </c>
-      <c r="I10" s="7">
-        <v>106737</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>318</v>
@@ -3780,13 +3768,13 @@
         <v>221764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,34 +3783,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7">
+        <v>66798</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="7">
         <v>111</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>75961</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="7">
-        <v>97</v>
-      </c>
-      <c r="I11" s="7">
-        <v>66798</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>208</v>
@@ -3831,13 +3819,13 @@
         <v>142758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,31 +3837,31 @@
         <v>30</v>
       </c>
       <c r="D12" s="7">
-        <v>20697</v>
+        <v>20511</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
       </c>
       <c r="I12" s="7">
-        <v>20511</v>
+        <v>20697</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -3882,13 +3870,13 @@
         <v>41208</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,34 +3885,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3803</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6376</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3803</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3933,13 +3921,13 @@
         <v>10178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,34 +3936,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="7">
         <v>8</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>5402</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1900</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3984,13 +3972,13 @@
         <v>7302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,25 +3987,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>326</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>223464</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -4046,40 +4034,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36535</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="7">
         <v>45</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>30300</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H16" s="7">
-        <v>51</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36535</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4088,13 +4076,13 @@
         <v>66835</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,34 +4091,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16989</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="7">
         <v>29</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>19779</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="7">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16989</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -4139,13 +4127,13 @@
         <v>36768</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,34 +4142,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4580</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4518</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4580</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -4190,13 +4178,13 @@
         <v>9099</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,34 +4193,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>297</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4241,13 +4229,13 @@
         <v>675</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,31 +4244,31 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>607</v>
+        <v>1365</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>302</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1365</v>
+        <v>607</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>304</v>
@@ -4307,25 +4295,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60145</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>81</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>55204</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60145</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4363,7 +4351,7 @@
         <v>246</v>
       </c>
       <c r="D22" s="7">
-        <v>168564</v>
+        <v>174620</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>308</v>
@@ -4378,7 +4366,7 @@
         <v>246</v>
       </c>
       <c r="I22" s="7">
-        <v>174620</v>
+        <v>168564</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>311</v>
@@ -4411,10 +4399,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D23" s="7">
-        <v>112723</v>
+        <v>93848</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>317</v>
@@ -4426,10 +4414,10 @@
         <v>319</v>
       </c>
       <c r="H23" s="7">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="I23" s="7">
-        <v>93848</v>
+        <v>112723</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>320</v>
@@ -4438,7 +4426,7 @@
         <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>298</v>
@@ -4447,13 +4435,13 @@
         <v>206571</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,34 +4450,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30811</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="7">
         <v>41</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>28727</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H24" s="7">
-        <v>45</v>
-      </c>
-      <c r="I24" s="7">
-        <v>30811</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -4498,13 +4486,13 @@
         <v>59538</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,34 +4501,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5536</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="7">
         <v>10</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>6376</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H25" s="7">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5536</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -4549,13 +4537,13 @@
         <v>11911</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,31 +4552,31 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6703</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H26" s="7">
         <v>11</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>7439</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H26" s="7">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6703</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>347</v>
@@ -4603,10 +4591,10 @@
         <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,25 +4603,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>443</v>
+      </c>
+      <c r="D27" s="7">
+        <v>311518</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>471</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>323829</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>443</v>
-      </c>
-      <c r="I27" s="7">
-        <v>311518</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -4662,7 +4650,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4681,7 +4669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67C6CD5-7F92-4AF6-8A04-BC566FE5E9F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC9AD0E-35BC-4836-BA39-4458697A5B1D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4698,7 +4686,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4799,34 +4787,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13890</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="7">
         <v>22</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>15822</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13890</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -4835,13 +4823,13 @@
         <v>29712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,34 +4838,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10221</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16542</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H5" s="7">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10221</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4886,13 +4874,13 @@
         <v>26763</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,34 +4889,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5328</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4274</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5328</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4937,13 +4925,13 @@
         <v>9602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,34 +4940,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>549</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>549</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4988,13 +4976,13 @@
         <v>549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,34 +4991,34 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>617</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>617</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5039,13 +5027,13 @@
         <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,25 +5042,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -5107,34 +5095,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>167</v>
+      </c>
+      <c r="D10" s="7">
+        <v>119814</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="7">
         <v>150</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>108611</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H10" s="7">
-        <v>167</v>
-      </c>
-      <c r="I10" s="7">
-        <v>119814</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>317</v>
@@ -5143,13 +5131,13 @@
         <v>228425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,34 +5146,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>138</v>
+      </c>
+      <c r="D11" s="7">
+        <v>95554</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="7">
         <v>120</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>88245</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H11" s="7">
-        <v>138</v>
-      </c>
-      <c r="I11" s="7">
-        <v>95554</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M11" s="7">
         <v>258</v>
@@ -5194,13 +5182,13 @@
         <v>183799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,34 +5197,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18835</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" s="7">
         <v>41</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>30869</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" s="7">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18835</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -5245,13 +5233,13 @@
         <v>49704</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,34 +5248,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5340</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5071</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5340</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5296,13 +5284,13 @@
         <v>10411</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,34 +5299,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2028</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>3554</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2028</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5347,13 +5335,13 @@
         <v>5583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,25 +5350,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>345</v>
+      </c>
+      <c r="D15" s="7">
+        <v>241571</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>323</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>236350</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>345</v>
-      </c>
-      <c r="I15" s="7">
-        <v>241571</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -5409,40 +5397,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7">
+        <v>40446</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H16" s="7">
         <v>53</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>37756</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40446</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5451,13 +5439,13 @@
         <v>78202</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,34 +5454,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23310</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" s="7">
         <v>38</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>27799</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H17" s="7">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23310</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -5502,13 +5490,13 @@
         <v>51109</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,34 +5505,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5576</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6778</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5576</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>450</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5553,13 +5541,13 @@
         <v>12354</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,34 +5556,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1757</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>759</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1757</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5604,13 +5592,13 @@
         <v>2516</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,34 +5607,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1696</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>457</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5655,13 +5643,13 @@
         <v>1696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,25 +5658,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>104</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>74788</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5723,34 +5711,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>244</v>
+      </c>
+      <c r="D22" s="7">
+        <v>174150</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H22" s="7">
         <v>225</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>162189</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="H22" s="7">
-        <v>244</v>
-      </c>
-      <c r="I22" s="7">
-        <v>174150</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>469</v>
@@ -5759,13 +5747,13 @@
         <v>336340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,34 +5762,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>185</v>
+      </c>
+      <c r="D23" s="7">
+        <v>129084</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H23" s="7">
         <v>181</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>132586</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="H23" s="7">
-        <v>185</v>
-      </c>
-      <c r="I23" s="7">
-        <v>129084</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>366</v>
@@ -5810,13 +5798,13 @@
         <v>261671</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,34 +5813,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>29739</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H24" s="7">
         <v>57</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>41921</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H24" s="7">
-        <v>45</v>
-      </c>
-      <c r="I24" s="7">
-        <v>29739</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>102</v>
@@ -5861,13 +5849,13 @@
         <v>71660</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,34 +5864,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7646</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H25" s="7">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5830</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="7">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7646</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5912,13 +5900,13 @@
         <v>13476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>493</v>
+        <v>265</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>494</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,34 +5915,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2645</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H26" s="7">
         <v>7</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>5251</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2645</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>500</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5963,13 +5951,13 @@
         <v>7896</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>496</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,25 +5966,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>489</v>
+      </c>
+      <c r="D27" s="7">
+        <v>343266</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>347776</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>489</v>
-      </c>
-      <c r="I27" s="7">
-        <v>343266</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -6025,7 +6013,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
